--- a/excel/monthcost_temp.xlsx
+++ b/excel/monthcost_temp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="18255" windowHeight="11610"/>
@@ -9,17 +9,13 @@
   <sheets>
     <sheet name="费用率" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
-    <t>2017年销售订单费用率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>月份</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -325,6 +321,10 @@
   </si>
   <si>
     <t>&lt;%~_data_[0].fycgkcyj12%&gt;</t>
+  </si>
+  <si>
+    <t>2018年销售订单费用率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1317,48 +1317,48 @@
     <cellStyle name="_x0007_ 2" xfId="3"/>
     <cellStyle name="_x0007_ 2 2" xfId="4"/>
     <cellStyle name="_x0007_ 3" xfId="5"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10;" xfId="6"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 18" xfId="7"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 18 2" xfId="8"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 18 3" xfId="9"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2" xfId="10"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 10" xfId="11"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 2" xfId="12"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 2 2" xfId="13"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 2 2 2" xfId="14"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 2 2 2 2" xfId="15"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 2 2 2 3" xfId="16"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 2 2 3" xfId="17"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 2 3" xfId="18"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 2 4" xfId="19"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 3" xfId="20"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 3 2" xfId="21"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 3 3" xfId="22"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 4" xfId="23"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 5" xfId="24"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 22" xfId="25"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 22 2" xfId="26"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 22 3" xfId="27"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 24" xfId="28"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 24 2" xfId="29"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 27" xfId="30"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 27 2" xfId="31"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 27 3" xfId="32"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 3" xfId="33"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 3 2" xfId="34"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 3 3" xfId="35"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 4" xfId="36"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 4 2" xfId="37"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 4 2 2" xfId="38"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 4 2 3" xfId="39"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 4 3" xfId="40"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 4 4" xfId="41"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 5" xfId="42"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 7" xfId="43"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 7 2" xfId="44"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 7 3" xfId="45"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10;_末端 单元机 模块机" xfId="46"/>
-    <cellStyle name="0,0_x005f_x000d_&#10;NA_x005f_x000d_&#10;" xfId="47"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="6"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 18" xfId="7"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 18 2" xfId="8"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 18 3" xfId="9"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="10"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 10" xfId="11"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2" xfId="12"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2 2" xfId="13"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2 2 2" xfId="14"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2 2 2 2" xfId="15"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2 2 2 3" xfId="16"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2 2 3" xfId="17"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2 3" xfId="18"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2 4" xfId="19"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 3" xfId="20"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 3 2" xfId="21"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 3 3" xfId="22"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 4" xfId="23"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 5" xfId="24"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 22" xfId="25"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 22 2" xfId="26"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 22 3" xfId="27"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 24" xfId="28"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 24 2" xfId="29"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 27" xfId="30"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 27 2" xfId="31"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 27 3" xfId="32"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 3" xfId="33"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 3 2" xfId="34"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 3 3" xfId="35"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 4" xfId="36"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 4 2" xfId="37"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 4 2 2" xfId="38"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 4 2 3" xfId="39"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 4 3" xfId="40"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 4 4" xfId="41"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 5" xfId="42"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 7" xfId="43"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 7 2" xfId="44"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 7 3" xfId="45"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a__末端 单元机 模块机" xfId="46"/>
+    <cellStyle name="0,0_x005f_x000d__x000a_NA_x005f_x000d__x000a_" xfId="47"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="百分比 2" xfId="48"/>
     <cellStyle name="百分比 2 2" xfId="49"/>
@@ -1870,7 +1870,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1891,7 +1891,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
       <c r="A1" s="16" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1905,34 +1905,34 @@
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1">
       <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15">
@@ -1949,29 +1949,29 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4:E4)</f>
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="4" t="e">
         <f>C4+D4+E4+G4+H4</f>
@@ -1985,29 +1985,29 @@
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F15" si="1">SUM(C5:E5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="4" t="e">
         <f t="shared" ref="I5:I15" si="2">C5+D5+E5+G5+H5</f>
@@ -2021,29 +2021,29 @@
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2057,29 +2057,29 @@
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2093,29 +2093,29 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2129,29 +2129,29 @@
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2165,29 +2165,29 @@
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2201,29 +2201,29 @@
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2237,29 +2237,29 @@
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2273,29 +2273,29 @@
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2309,29 +2309,29 @@
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2345,29 +2345,29 @@
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="4" t="e">
         <f t="shared" si="2"/>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4">
         <f>SUM(B4:B15)</f>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" ht="17.25" thickBot="1">
       <c r="A17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="10">
         <v>1083000000</v>
